--- a/dumps/Stocks/Nipponamc -
Netfsilver.xlsx
+++ b/dumps/Stocks/Nipponamc -
Netfsilver.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB5"/>
+  <dimension ref="A1:AB8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,7 +574,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45959</v>
+        <v>45971</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -587,23 +587,131 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E5" t="n">
-        <v>138.6</v>
+        <v>144.53</v>
       </c>
       <c r="F5" t="n">
-        <v>6950</v>
+        <v>2910.6</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252607497001</t>
+          <t>CN#252607962278</t>
         </is>
       </c>
       <c r="I5" t="n">
         <v>20</v>
       </c>
       <c r="J5">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>30</v>
+      </c>
+      <c r="E6" t="n">
+        <v>143.12</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4313.6</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>CN#252607606298</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>20</v>
+      </c>
+      <c r="J6">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45960</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>50</v>
+      </c>
+      <c r="E7" t="n">
+        <v>139.52</v>
+      </c>
+      <c r="F7" t="n">
+        <v>6996</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>CN#252607551490</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>20</v>
+      </c>
+      <c r="J7">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>50</v>
+      </c>
+      <c r="E8" t="n">
+        <v>138.6</v>
+      </c>
+      <c r="F8" t="n">
+        <v>6950</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>CN#252607497001</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>20</v>
+      </c>
+      <c r="J8">
         <f>Index!$C$2</f>
         <v/>
       </c>

--- a/dumps/Stocks/Nipponamc -
Netfsilver.xlsx
+++ b/dumps/Stocks/Nipponamc -
Netfsilver.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB8"/>
+  <dimension ref="A1:AB10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,7 +574,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45971</v>
+        <v>46022</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -583,38 +583,34 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>20</v>
+        <v>225</v>
       </c>
       <c r="E5" t="n">
-        <v>144.53</v>
+        <v>218.1211</v>
       </c>
       <c r="F5" t="n">
-        <v>2910.6</v>
+        <v>49077.25</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252607962278</t>
+          <t>CN#252609981253</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>20</v>
-      </c>
-      <c r="J5">
-        <f>Index!$C$2</f>
-        <v/>
+        <v>20.0025</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45961</v>
+        <v>45999</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -626,14 +622,14 @@
         <v>30</v>
       </c>
       <c r="E6" t="n">
-        <v>143.12</v>
+        <v>169.99</v>
       </c>
       <c r="F6" t="n">
-        <v>4313.6</v>
+        <v>5119.7</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>CN#252607606298</t>
+          <t>CN#252609099359</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -646,7 +642,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45960</v>
+        <v>45971</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -659,17 +655,17 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E7" t="n">
-        <v>139.52</v>
+        <v>144.53</v>
       </c>
       <c r="F7" t="n">
-        <v>6996</v>
+        <v>2910.6</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>CN#252607551490</t>
+          <t>CN#252607962278</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -682,7 +678,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45959</v>
+        <v>45961</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -695,23 +691,95 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E8" t="n">
-        <v>138.6</v>
+        <v>143.12</v>
       </c>
       <c r="F8" t="n">
-        <v>6950</v>
+        <v>4313.6</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>CN#252607497001</t>
+          <t>CN#252607606298</t>
         </is>
       </c>
       <c r="I8" t="n">
         <v>20</v>
       </c>
       <c r="J8">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45960</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>50</v>
+      </c>
+      <c r="E9" t="n">
+        <v>139.52</v>
+      </c>
+      <c r="F9" t="n">
+        <v>6996</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>CN#252607551490</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>20</v>
+      </c>
+      <c r="J9">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>50</v>
+      </c>
+      <c r="E10" t="n">
+        <v>138.6</v>
+      </c>
+      <c r="F10" t="n">
+        <v>6950</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>CN#252607497001</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>20</v>
+      </c>
+      <c r="J10">
         <f>Index!$C$2</f>
         <v/>
       </c>
